--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/67_Samsun_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/67_Samsun_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15D0C77-0B25-4473-8788-7872485165DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{471A3C8B-4013-4A86-9E58-B99BC5C48D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{577F1E00-B15A-4314-8EE5-1C806EF61EAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{56CD5508-26CE-439D-82BE-1FD2700DFFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -943,14 +943,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FEF454F4-12F0-4E7F-91F0-6D9DE62D9C5A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{679B9FBB-2166-4A65-971C-FD4EE76D4139}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{2C85F5B3-113D-42BD-BE80-0BE4864E8308}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{65940FD1-AC58-447A-9588-DB8A79B26DB1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C5F01338-CF0F-42C8-8578-5EA0011FDF5F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B24BF3C1-7910-4F18-AF62-727A61FCCE2A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FEC40C4C-CEED-4288-8784-B0401C741E3C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{233F1B9C-6ED6-42CE-A09C-FB0CDADA8B62}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D3FB4170-A4A6-4FE1-AED2-11CA79E0190D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{018FB904-645E-48D6-9D7C-1AF39C256A23}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{7D45415B-5262-4AB8-93A0-A86799044E7A}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{69B47852-1E44-4EC2-BB0B-B02D655AA231}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CAFC1637-A5C1-4D72-83FF-20EDB2CF1EFE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{081E8E19-B235-4536-B095-244D4B159FE8}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{50D3F6DE-D013-4081-8122-2C80F512DE2C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{78C04FF6-3C59-49B7-80CF-0EA8B94AAD79}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF11711-30ED-4894-A965-032F64BE9C93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD70CD4-0B8C-4EEE-A3E6-DF7052365D6E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6440A25-2EC4-4A5E-BC76-9D7DC24DEA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3675E6EB-72B3-4F29-BC86-D77DFFB6F525}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520C46DE-B3E3-475E-84F2-33C41AB076AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A4E0E-CB84-43B7-A389-327569731C87}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5154,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81491B23-A225-45DC-B368-6BF347010C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC215B8-753A-4824-A842-A65BC459C760}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6411,7 +6411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496FDE7C-E592-4913-9D89-525726BCAECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006723EC-5AF0-4751-8037-3E11DFFD4A6D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7714,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83BE47-D7E8-4333-B23B-5E9B80EB73B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B43B05-D963-40F4-9EF4-123FB5EF2E76}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9017,7 +9017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A669D55A-435D-4483-A9CA-92CEC7335189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B71DFD-0081-498F-856F-8AF9AF8A392E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10320,7 +10320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F1C60-0D7C-4AE1-B3CF-A40C3D4547BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843FC6E7-F0A1-4B05-A5F8-D22F6FB30EF2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11623,7 +11623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA1AFC-2E8E-4EB4-AC3C-D5BD2EE419DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C2FEF5-B069-41E7-ABAA-F520964629BD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12926,7 +12926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AE7CA4-CAC5-4E35-8F43-2DC3252B0670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0425785-6073-45B1-BDFE-BE5FAE82A935}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14219,7 +14219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E5986E-BEA3-4E5A-A23B-D70E909A6486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF8244-27C7-4E65-86FA-196B55789312}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15510,7 +15510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF142C-9E41-4859-941D-D4BADFFFC8A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CE7AA7-0FEE-4687-A25B-2ED303C49B68}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
